--- a/Documentacion/ListaRiesgos.xlsx
+++ b/Documentacion/ListaRiesgos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\fede\Proyecto final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Github\ProyectoFinal\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="6792"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
     <t>Código</t>
   </si>
   <si>
-    <t>Riesgo</t>
-  </si>
-  <si>
     <t>Categoría</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>Problemas con las herramientas seleccionadas</t>
+  </si>
+  <si>
+    <t>Descripción</t>
   </si>
 </sst>
 </file>
@@ -509,199 +509,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="91.85546875" customWidth="1"/>
+    <col min="2" max="2" width="91.88671875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="113.85546875" customWidth="1"/>
-    <col min="7" max="7" width="62.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="113.88671875" customWidth="1"/>
+    <col min="7" max="7" width="62.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
